--- a/MCU/Atmega/BOM_TOP_MCUPART.xlsx
+++ b/MCU/Atmega/BOM_TOP_MCUPART.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="191">
   <si>
     <t>R1,R2,R3,R4,R5,R6,R7,R8,R9,R10,R11,R12,R13,R20,R21,R22,R23,R24,R25,R26,R27,R28,R29,R30,R31,R32,R33,R34,R35,R36,R37,R38,R39,R40,R41,R42,R43,R44,R45,R46,R47,R49,R50,R51,R61,R62,R63,R64,R65,R68,R70,R71,R73,R76,R77,R78,R79,R80,R81,R82,R83,R84,R85,R86,R87,R88,R89,R90,R91,R92,R93,R94,R95</t>
   </si>
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t>Reference</t>
-  </si>
-  <si>
-    <t>C3,C4,C5,C6,C7,C10,C11,C16,C18</t>
   </si>
   <si>
     <t>FB</t>
@@ -626,6 +623,67 @@
   <si>
     <t>DIO_SZMMSZ4689T1G</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3,C4,C5,C6,C7,C10,C11,C18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EKMQ161VSN102MP40S</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>000uF</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ecal File.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP_B43501A6476M000..d</t>
+  </si>
+  <si>
+    <t>CAP_B43501A6476M000</t>
   </si>
 </sst>
 </file>
@@ -715,7 +773,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -781,6 +839,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1088,10 +1152,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:O51"/>
+  <dimension ref="A2:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1102,98 +1166,102 @@
     <col min="6" max="6" width="19.5" style="9" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.375" style="1" customWidth="1"/>
+    <col min="9" max="10" width="15.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="22"/>
+    <row r="3" spans="1:16">
+      <c r="A3" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="24"/>
       <c r="C3" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="22"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="24"/>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:16">
+      <c r="A5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-    </row>
-    <row r="10" spans="1:15">
+    <row r="8" spans="1:16">
+      <c r="A8" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1201,39 +1269,41 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="33">
+    <row r="11" spans="1:16" ht="33">
       <c r="A11" s="1">
         <v>2</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>56</v>
+      <c r="C11" s="16" t="s">
+        <v>184</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="23"/>
+      <c r="K11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -1244,36 +1314,44 @@
         <v>26</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="23"/>
+      <c r="K12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16" s="1" customFormat="1">
       <c r="A13" s="1">
         <v>4</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="C13" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="I13" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>5</v>
       </c>
@@ -1281,120 +1359,119 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="23"/>
+      <c r="K14" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>6</v>
       </c>
       <c r="B15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>80</v>
+      </c>
+      <c r="J15" s="23"/>
+      <c r="K15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>7</v>
       </c>
       <c r="B16" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>181</v>
+        <v>42</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>80</v>
+      </c>
+      <c r="J16" s="23"/>
+      <c r="K16" s="18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>8</v>
       </c>
       <c r="B17" s="1">
-        <v>6</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>72</v>
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>180</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J17" s="21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>80</v>
+      </c>
+      <c r="J17" s="23"/>
+      <c r="K17" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>9</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>140</v>
+        <v>6</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>120</v>
+      </c>
+      <c r="J18" s="23"/>
+      <c r="K18" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>10</v>
       </c>
@@ -1402,19 +1479,26 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>110</v>
+        <v>65</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>80</v>
+      </c>
+      <c r="J19" s="23"/>
+      <c r="K19" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>11</v>
       </c>
@@ -1422,28 +1506,20 @@
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="J20" s="23"/>
+      <c r="K20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>12</v>
       </c>
@@ -1451,28 +1527,29 @@
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>72</v>
+        <v>6</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="J21" s="23"/>
+      <c r="K21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>13</v>
       </c>
@@ -1480,772 +1557,813 @@
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>32</v>
+        <v>47</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="J22" s="23"/>
+      <c r="K22" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>14</v>
       </c>
       <c r="B23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>159</v>
+        <v>49</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>32</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="J23" s="23"/>
+      <c r="K23" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>15</v>
       </c>
       <c r="B24" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>44</v>
+        <v>28</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="J24" s="23"/>
+      <c r="K24" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>146</v>
+        <v>44</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="J25" s="23"/>
+      <c r="K25" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>150</v>
+        <v>106</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="J26" s="23"/>
+      <c r="K26" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>149</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="J27" s="23"/>
+      <c r="K27" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>152</v>
+        <v>115</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J28" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="J28" s="23"/>
+      <c r="K28" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>157</v>
+        <v>131</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J29" s="12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="J29" s="23"/>
+      <c r="K29" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>75</v>
+        <v>96</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J30" s="12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="214.5">
+      <c r="J30" s="23"/>
+      <c r="K30" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
+        <v>22</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="23"/>
+      <c r="K31" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="214.5">
+      <c r="A32" s="1">
         <v>23</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B32" s="1">
         <v>73</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D32" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="J32" s="23"/>
+      <c r="K32" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1">
+        <v>24</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="6">
+        <v>2</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="J33" s="23"/>
+      <c r="K33" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1">
+        <v>25</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="J34" s="23"/>
+      <c r="K34" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1">
+        <v>26</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="J35" s="23"/>
+      <c r="K35" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1">
+        <v>27</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="J36" s="23"/>
+      <c r="K36" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="18" customHeight="1">
+      <c r="A37" s="1">
+        <v>28</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="F37" s="25"/>
+      <c r="G37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="23"/>
+      <c r="K37" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1">
+        <v>29</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J38" s="23"/>
+      <c r="K38" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1">
+        <v>30</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I31" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1">
-        <v>24</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="6">
+      <c r="D39" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J39" s="23"/>
+      <c r="K39" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1">
+        <v>31</v>
+      </c>
+      <c r="B40" s="1">
         <v>2</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="C40" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I40" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J32" s="12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1">
-        <v>25</v>
-      </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="J40" s="23"/>
+      <c r="K40" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1">
+        <v>32</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D41" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J41" s="23"/>
+      <c r="K41" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1">
+        <v>33</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="23"/>
+      <c r="K42" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1">
+        <v>34</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="D43" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J43" s="23"/>
+      <c r="K43" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1">
+        <v>35</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I44" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J33" s="12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1">
-        <v>26</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="J44" s="23"/>
+      <c r="K44" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1">
+        <v>36</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1">
-        <v>27</v>
-      </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="18" customHeight="1">
-      <c r="A36" s="1">
-        <v>28</v>
-      </c>
-      <c r="B36" s="1">
-        <v>2</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="D45" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1">
-        <v>30</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1">
-        <v>31</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1">
-        <v>32</v>
-      </c>
-      <c r="B39" s="1">
-        <v>2</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" s="18" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1">
+      <c r="E45" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J45" s="23"/>
+      <c r="K45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1">
-        <v>34</v>
-      </c>
-      <c r="B41" s="1">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1">
-        <v>35</v>
-      </c>
-      <c r="B42" s="1">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1">
-        <v>36</v>
-      </c>
-      <c r="B43" s="1">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1">
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1">
         <v>37</v>
       </c>
-      <c r="B44" s="1">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="G44" s="1" t="s">
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I44" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1">
-        <v>38</v>
-      </c>
-      <c r="B45" s="1">
-        <v>1</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1">
-        <v>39</v>
-      </c>
-      <c r="B46" s="1">
-        <v>1</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>5</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J46" s="23"/>
+      <c r="K46" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1">
+        <v>38</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="23"/>
+      <c r="K47" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1">
+    <row r="48" spans="1:11">
+      <c r="A48" s="1">
+        <v>39</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J48" s="23"/>
+      <c r="K48" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1">
         <v>40</v>
       </c>
-      <c r="B47" s="1">
-        <v>1</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I47" s="6" t="s">
+      <c r="C49" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J47" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="C48" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" s="6" t="s">
+      <c r="D49" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="F48" s="6" t="s">
+      <c r="E49" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="1" customFormat="1">
-      <c r="C49" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>166</v>
+      <c r="G49" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J49" s="18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="J49" s="23"/>
+      <c r="K49" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="1" customFormat="1">
       <c r="A50" s="1">
         <v>41</v>
       </c>
-      <c r="B50" s="1">
-        <v>1</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>168</v>
+      <c r="C50" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>165</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J50" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="J50" s="23"/>
+      <c r="K50" s="18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>42</v>
       </c>
@@ -2253,29 +2371,54 @@
         <v>1</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J51" s="1" t="s">
-        <v>169</v>
+      <c r="J51" s="23"/>
+      <c r="K51" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="1">
+        <v>43</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="23"/>
+      <c r="K52" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A8:O8"/>
+    <mergeCell ref="A8:P8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
